--- a/AirportCheckInMeetingNotes.xlsx
+++ b/AirportCheckInMeetingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solar\IdeaProjects\PSD2_Group8Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C36B2A8-840A-4418-8461-43BACC6010BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0249D837-0E8F-4F0E-A9C5-A9D0062C5C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
+    <workbookView xWindow="-10695" yWindow="4620" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
   <si>
     <t>Week 9 W</t>
   </si>
@@ -332,18 +332,6 @@
     <t xml:space="preserve">Create passenger, test passenger </t>
   </si>
   <si>
-    <t>Plane: departure time</t>
-  </si>
-  <si>
-    <t>Plane: arrival time</t>
-  </si>
-  <si>
-    <t>Plane: destination</t>
-  </si>
-  <si>
-    <t>Plane: delays</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -360,13 +348,88 @@
   </si>
   <si>
     <t>Melissa didn't join until Week 10 Monday</t>
+  </si>
+  <si>
+    <t>Began working on the write up</t>
+  </si>
+  <si>
+    <t>Begin the UMLs</t>
+  </si>
+  <si>
+    <t>Created Passenger (not abtract)</t>
+  </si>
+  <si>
+    <t>Make Passenger Abstract, start Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most of the Plane class completed, wait on Adult class to finish off. Also began a scheduling class. </t>
+  </si>
+  <si>
+    <t>Finish the Scheduling Class by being able to load from saved document</t>
+  </si>
+  <si>
+    <t>Actually get everyone together in the same virtual room and begin to put the code together in one document. And take a look at what we have written up so far.</t>
+  </si>
+  <si>
+    <t>Schedule Planes</t>
+  </si>
+  <si>
+    <t>Passenger Class finished - to be turned abstact</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make Passenger Abstract, work on adult (possibly using the this() and super() constructors) </t>
+  </si>
+  <si>
+    <t>Added a class to better care for the scheduling</t>
+  </si>
+  <si>
+    <t>TicketBookingSystem</t>
+  </si>
+  <si>
+    <t>SchedulePlanes</t>
+  </si>
+  <si>
+    <t>Passenger</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Plane: Departure Place</t>
+  </si>
+  <si>
+    <t>Plane: Destination</t>
+  </si>
+  <si>
+    <t>Schedule/Plane: Departure Time</t>
+  </si>
+  <si>
+    <t>Schedule/Plane: Delays</t>
+  </si>
+  <si>
+    <t>Schedule/Plane: Arrival Time</t>
+  </si>
+  <si>
+    <t>Work on the save/load of the schedule</t>
+  </si>
+  <si>
+    <t>Set up a meeting with Rosaleen to ensure we are on track</t>
+  </si>
+  <si>
+    <t>Fixed errors with the pricing in the plane class, added the ability to print out all available seats and updated documents and commented code.</t>
+  </si>
+  <si>
+    <t>Continued Working on the Write up, Worked on a few of the UMLS</t>
+  </si>
+  <si>
+    <t>Continue with Write up and UMLs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,8 +473,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFB17ED8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -448,6 +518,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -461,18 +537,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -482,13 +552,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -504,6 +568,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,28 +909,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EAEF8C-9C6D-4416-9398-EC3F7C9DF428}">
-  <dimension ref="B1:P31"/>
+  <dimension ref="B1:P32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23" style="18" customWidth="1"/>
+    <col min="2" max="2" width="23" style="14" customWidth="1"/>
     <col min="3" max="14" width="9.28515625" customWidth="1"/>
     <col min="15" max="15" width="3.5703125" customWidth="1"/>
     <col min="16" max="16" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="14" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="2" spans="2:16" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="20"/>
+      <c r="B2" s="16"/>
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -882,302 +968,302 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="19">
+    <row r="3" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="15">
         <v>44153</v>
       </c>
-      <c r="D3" s="19">
+      <c r="D3" s="15">
         <v>44155</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="15">
         <v>44158</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="15">
         <v>44160</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="15">
         <v>44162</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="15">
         <v>44165</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="15">
         <v>44167</v>
       </c>
-      <c r="J3" s="19">
+      <c r="J3" s="15">
         <v>44169</v>
       </c>
-      <c r="K3" s="19">
+      <c r="K3" s="15">
         <v>44172</v>
       </c>
-      <c r="L3" s="19">
+      <c r="L3" s="15">
         <v>44174</v>
       </c>
-      <c r="M3" s="19">
+      <c r="M3" s="15">
         <v>44176</v>
       </c>
-      <c r="N3" s="19">
+      <c r="N3" s="15">
         <v>44179</v>
       </c>
-      <c r="P3" s="18" t="s">
+      <c r="P3" s="14" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
       <c r="P4" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="16" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16" t="s">
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L5" s="23"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
       <c r="P5" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="16" t="s">
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
       <c r="P6" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
       <c r="P7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="12" t="s">
+      <c r="C8" s="9"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
       <c r="P8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="17" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
       <c r="P9" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="17" t="s">
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
       <c r="P10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="17" t="s">
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
       <c r="P11" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="K12" s="15" t="s">
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="K12" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="13"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="9"/>
       <c r="P12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="15" t="s">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
       <c r="P13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="15" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="11" t="s">
         <v>71</v>
       </c>
       <c r="P14" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="22"/>
+    <row r="16" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="18"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="20"/>
+      <c r="B19" s="16"/>
       <c r="C19" s="1" t="s">
         <v>0</v>
       </c>
@@ -1217,270 +1303,288 @@
       <c r="O19" s="1"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="19">
+      <c r="C20" s="15">
         <v>44153</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="15">
         <v>44155</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="15">
         <v>44158</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="15">
         <v>44160</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="15">
         <v>44162</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="15">
         <v>44165</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="15">
         <v>44167</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="15">
         <v>44169</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="15">
         <v>44172</v>
       </c>
-      <c r="L20" s="19">
+      <c r="L20" s="15">
         <v>44174</v>
       </c>
-      <c r="M20" s="19">
+      <c r="M20" s="15">
         <v>44176</v>
       </c>
-      <c r="N20" s="19">
+      <c r="N20" s="15">
         <v>44179</v>
       </c>
-      <c r="O20" s="18"/>
-      <c r="P20" s="18" t="s">
+      <c r="O20" s="14"/>
+      <c r="P20" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15" t="s">
+      <c r="D21" s="11"/>
+      <c r="E21" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14" t="s">
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
       <c r="P21" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14" t="s">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="P23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="F23" s="16" t="s">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="F24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14" t="s">
+      <c r="G24" s="12"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B24" s="18" t="s">
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="12" t="s">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14" t="s">
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" s="18" t="s">
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C25" s="13"/>
-      <c r="D25" s="13"/>
-      <c r="E25" s="13"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14" t="s">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" s="18" t="s">
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B27" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="14"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14" t="s">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
-      <c r="N26" s="14"/>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="18" t="s">
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B28" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="14"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14" t="s">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
-      <c r="N27" s="14"/>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="18" t="s">
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B29" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="17" t="s">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14" t="s">
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
-      <c r="N28" s="14"/>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="18" t="s">
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="14"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="14" t="s">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
-      <c r="N29" s="14"/>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B30" s="18" t="s">
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B31" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="13"/>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14" t="s">
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="J31" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="K31" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
-      <c r="N30" s="14"/>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="18" t="s">
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14" t="s">
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1494,66 +1598,66 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="2"/>
     <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="2.42578125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.140625" style="2"/>
     <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="2.42578125" style="5" customWidth="1"/>
     <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="5" customWidth="1"/>
     <col min="11" max="11" width="32.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="D1" s="4" t="s">
+      <c r="B1" s="26"/>
+      <c r="D1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="G1" s="4" t="s">
+      <c r="E1" s="26"/>
+      <c r="G1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="3"/>
-      <c r="J1" s="4" t="s">
+      <c r="H1" s="26"/>
+      <c r="J1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="K1" s="26"/>
+    </row>
+    <row r="2" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="C2" s="6"/>
+      <c r="D2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="8"/>
-      <c r="J2" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="K2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1564,6 +1668,9 @@
       <c r="E3" t="s">
         <v>32</v>
       </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
       <c r="K3" t="s">
         <v>32</v>
       </c>
@@ -1575,16 +1682,25 @@
       <c r="E4" t="s">
         <v>33</v>
       </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
       <c r="K4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
       <c r="E5" t="s">
         <v>34</v>
+      </c>
+      <c r="H5" t="s">
+        <v>116</v>
       </c>
       <c r="K5" t="s">
         <v>34</v>
@@ -1597,6 +1713,9 @@
       <c r="E6" t="s">
         <v>35</v>
       </c>
+      <c r="H6" t="s">
+        <v>117</v>
+      </c>
       <c r="K6" t="s">
         <v>35</v>
       </c>
@@ -1608,16 +1727,25 @@
       <c r="E7" t="s">
         <v>36</v>
       </c>
+      <c r="H7" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B8" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>118</v>
       </c>
       <c r="K8" t="s">
         <v>37</v>
@@ -1630,6 +1758,9 @@
       <c r="E9" t="s">
         <v>38</v>
       </c>
+      <c r="H9" t="s">
+        <v>15</v>
+      </c>
       <c r="K9" t="s">
         <v>38</v>
       </c>
@@ -1639,7 +1770,7 @@
         <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
         <v>39</v>
@@ -1657,6 +1788,9 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B12" t="s">
         <v>40</v>
       </c>
@@ -1683,21 +1817,33 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B17" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B18" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>98</v>
+      </c>
       <c r="B19" t="s">
         <v>50</v>
       </c>
@@ -1709,10 +1855,10 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1729,109 +1875,145 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAE4F4-9D76-4285-85F5-8EB67F8CEC56}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="9" customWidth="1"/>
-    <col min="2" max="7" width="37" style="10" customWidth="1"/>
-    <col min="8" max="8" width="37" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="9"/>
+    <col min="1" max="1" width="7.85546875" style="7" customWidth="1"/>
+    <col min="2" max="8" width="37" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="24" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+      <c r="A2" s="27">
         <v>44160</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="7" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="11">
-        <v>44162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
+    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="27">
         <v>44165</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>44167</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="11">
-        <v>44167</v>
+      <c r="A5" s="27">
+        <v>44169</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="11">
-        <v>44169</v>
+      <c r="A6" s="27">
+        <v>44172</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="11">
-        <v>44172</v>
+      <c r="A7" s="27">
+        <v>44174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="11">
-        <v>44174</v>
+      <c r="A8" s="27">
+        <v>44176</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="11">
-        <v>44176</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="11">
+      <c r="A9" s="27">
         <v>44179</v>
       </c>
     </row>
@@ -1842,32 +2024,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022955B-6432-47C7-8EE5-B0A3A38B2D96}">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/AirportCheckInMeetingNotes.xlsx
+++ b/AirportCheckInMeetingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solar\IdeaProjects\PSD2_Group8Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0249D837-0E8F-4F0E-A9C5-A9D0062C5C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C690301-4A39-408B-808D-32C086774D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-10695" yWindow="4620" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="2" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
   <si>
     <t>Week 9 W</t>
   </si>
@@ -423,6 +423,27 @@
   </si>
   <si>
     <t>Continue with Write up and UMLs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a discussion with Rosaleen to make sure that we fully understood what was needed and ensured that we are on the right track. </t>
+  </si>
+  <si>
+    <t>Continued working on the save/load of the schedule</t>
+  </si>
+  <si>
+    <t>Continued working on making Passenger Abstract and working on Adult</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plane: Use this as an Abstract class and have Child classes of different plane types. </t>
+  </si>
+  <si>
+    <t>Continue working on Passenger and Adult Classes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Planned) Team Tackle the TicketBookingSystem class on Tuesday at 12:00 lunch time </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continue working on Plane and Schedule classes - Also expanding on the methods document to help show how each class works </t>
   </si>
 </sst>
 </file>
@@ -581,14 +602,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -912,7 +933,7 @@
   <dimension ref="B1:P32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1557,7 +1578,7 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="10"/>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>102</v>
       </c>
       <c r="K31" s="10" t="s">
@@ -1595,278 +1616,282 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B9472F-3312-437F-805E-9F4AA7CFD1DE}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:M21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="2"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="2.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
-    <col min="5" max="5" width="32.28515625" customWidth="1"/>
-    <col min="6" max="6" width="2.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="27.5703125" customWidth="1"/>
+    <col min="4" max="4" width="2.42578125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="7" max="7" width="2.42578125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1"/>
+    <col min="10" max="10" width="2.42578125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="32.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="B1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="D1" s="25" t="s">
+      <c r="C1" s="27"/>
+      <c r="E1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="G1" s="25" t="s">
+      <c r="F1" s="27"/>
+      <c r="H1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="26"/>
-      <c r="J1" s="25" t="s">
+      <c r="I1" s="27"/>
+      <c r="K1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="K1" s="26"/>
-    </row>
-    <row r="2" spans="1:11" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="L1" s="27"/>
+    </row>
+    <row r="2" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="6"/>
+      <c r="B2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="6"/>
+      <c r="E2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6"/>
+      <c r="K2" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="M2" s="6"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>32</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>115</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>11</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>21</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>116</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>117</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>36</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>13</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>24</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>37</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>118</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>25</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>38</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>15</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>100</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>41</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>43</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B17" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>101</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1877,8 +1902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAE4F4-9D76-4285-85F5-8EB67F8CEC56}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1915,7 +1940,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>44160</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1941,7 +1966,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>44165</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -1967,7 +1992,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>44167</v>
       </c>
       <c r="B4" s="7" t="s">
@@ -1992,28 +2017,46 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="25">
         <v>44169</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="27">
+      <c r="D5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="25">
         <v>44172</v>
       </c>
+      <c r="H6" s="7" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>44174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>44176</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>44179</v>
       </c>
     </row>
@@ -2024,7 +2067,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022955B-6432-47C7-8EE5-B0A3A38B2D96}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
@@ -2057,6 +2100,11 @@
         <v>119</v>
       </c>
     </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AirportCheckInMeetingNotes.xlsx
+++ b/AirportCheckInMeetingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solar\IdeaProjects\PSD2_Group8Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C690301-4A39-408B-808D-32C086774D83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C04D5BF-F732-4158-B4ED-2CB352D12F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
   <si>
     <t>Week 9 W</t>
   </si>
@@ -444,6 +444,21 @@
   </si>
   <si>
     <t xml:space="preserve">Continue working on Plane and Schedule classes - Also expanding on the methods document to help show how each class works </t>
+  </si>
+  <si>
+    <t>Plane: Be able to remove a passenger from the list</t>
+  </si>
+  <si>
+    <t>Plane: Be able to let a passenger change seats</t>
+  </si>
+  <si>
+    <t>&lt;Family Emergency&gt;</t>
+  </si>
+  <si>
+    <t>Continue with Write up and UMLs, Work on Children and Seniors</t>
+  </si>
+  <si>
+    <t>Passenter: Account for when the number of passengers becomes too big for an int value</t>
   </si>
 </sst>
 </file>
@@ -1902,8 +1917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAE4F4-9D76-4285-85F5-8EB67F8CEC56}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2021,6 +2036,12 @@
       <c r="A5" s="25">
         <v>44169</v>
       </c>
+      <c r="B5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>139</v>
+      </c>
       <c r="D5" s="7" t="s">
         <v>131</v>
       </c>
@@ -2067,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022955B-6432-47C7-8EE5-B0A3A38B2D96}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2105,6 +2126,21 @@
         <v>132</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>140</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AirportCheckInMeetingNotes.xlsx
+++ b/AirportCheckInMeetingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solar\IdeaProjects\PSD2_Group8Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C04D5BF-F732-4158-B4ED-2CB352D12F4B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6AE6F-1D76-4623-B890-0EC8C88F0D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
+    <workbookView xWindow="16335" yWindow="2925" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
   <si>
     <t>Week 9 W</t>
   </si>
@@ -326,9 +326,6 @@
     <t>Actual BurnDown</t>
   </si>
   <si>
-    <t>Projected Deadline</t>
-  </si>
-  <si>
     <t xml:space="preserve">Create passenger, test passenger </t>
   </si>
   <si>
@@ -459,6 +456,42 @@
   </si>
   <si>
     <t>Passenter: Account for when the number of passengers becomes too big for an int value</t>
+  </si>
+  <si>
+    <t>TicketBookingSystem: Add error handling for incorrect menu choices (incorrect passenger type, incorrect date)</t>
+  </si>
+  <si>
+    <t>Method Overloading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TicketBookingSystem: Find a better place to save your files </t>
+  </si>
+  <si>
+    <t>Start commenting Adult and Passenger classes</t>
+  </si>
+  <si>
+    <t>Finished Passenger and Adult working code, worked on TicketBookingSystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everyone (Melissa Lead) </t>
+  </si>
+  <si>
+    <t>Decided everyone would be better working on it together</t>
+  </si>
+  <si>
+    <t>Finished Child and Senior working code, worked on TicketbookingSystem</t>
+  </si>
+  <si>
+    <t>Start commenting Child and Senior classes and contine write up</t>
+  </si>
+  <si>
+    <t>Finished Plane and Schedule classes, worked on TicketBookingCode. Added comments to all code helped on</t>
+  </si>
+  <si>
+    <t>Work on code documentation and powerpoint presentation</t>
+  </si>
+  <si>
+    <t>Everyone (Ciaran Lead)</t>
   </si>
 </sst>
 </file>
@@ -601,7 +634,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment textRotation="45"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -626,6 +658,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -945,10 +978,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EAEF8C-9C6D-4416-9398-EC3F7C9DF428}">
-  <dimension ref="B1:P32"/>
+  <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,142 +993,118 @@
     <col min="16" max="16" width="73.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B1" s="14" t="s">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="2" spans="2:16" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="16"/>
-      <c r="C2" s="1" t="s">
+    <row r="3" spans="2:16" s="1" customFormat="1" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B3" s="16"/>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C3" s="15">
+    <row r="4" spans="2:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="15">
         <v>44153</v>
       </c>
-      <c r="D3" s="15">
+      <c r="D4" s="15">
         <v>44155</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E4" s="15">
         <v>44158</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F4" s="15">
         <v>44160</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G4" s="15">
         <v>44162</v>
       </c>
-      <c r="H3" s="15">
+      <c r="H4" s="15">
         <v>44165</v>
       </c>
-      <c r="I3" s="15">
+      <c r="I4" s="15">
         <v>44167</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J4" s="15">
         <v>44169</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K4" s="15">
         <v>44172</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L4" s="15">
         <v>44174</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M4" s="15">
         <v>44176</v>
       </c>
-      <c r="N3" s="15">
+      <c r="N4" s="15">
         <v>44179</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P4" s="14" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B4" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="P4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
       <c r="P5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1107,61 +1116,63 @@
       <c r="H6" s="12"/>
       <c r="I6" s="12"/>
       <c r="J6" s="12"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="9"/>
+      <c r="K6" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="L6" s="18"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
       <c r="P6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
-      <c r="F7" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="F7" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="10"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
       <c r="L8" s="9"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
       <c r="P8" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1169,21 +1180,21 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
-      <c r="I9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="I9" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
       <c r="L9" s="9"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
       <c r="P9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1200,55 +1211,56 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
       <c r="P10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
-      <c r="F11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="13" t="s">
+        <v>68</v>
+      </c>
       <c r="J11" s="13"/>
       <c r="K11" s="13"/>
       <c r="L11" s="9"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
       <c r="P11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" s="14" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="K12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
+      <c r="F12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
       <c r="N12" s="9"/>
       <c r="P12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1257,20 +1269,19 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="11" t="s">
-        <v>70</v>
-      </c>
+      <c r="K13" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="11"/>
       <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
+      <c r="N13" s="9"/>
       <c r="P13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B14" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1281,252 +1292,252 @@
       <c r="I14" s="9"/>
       <c r="J14" s="9"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-      <c r="N14" s="11" t="s">
+      <c r="L14" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="P14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="P14" t="s">
+      <c r="P15" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="16" spans="2:16" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="18"/>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B18" s="14" t="s">
+    <row r="17" spans="2:16" s="5" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="17"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="14" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="2:16" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="16"/>
-      <c r="C19" s="1" t="s">
+    <row r="20" spans="2:16" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="I20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J20" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="K20" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C20" s="15">
+      <c r="O20" s="1"/>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C21" s="15">
         <v>44153</v>
       </c>
-      <c r="D20" s="15">
+      <c r="D21" s="15">
         <v>44155</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E21" s="15">
         <v>44158</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F21" s="15">
         <v>44160</v>
       </c>
-      <c r="G20" s="15">
+      <c r="G21" s="15">
         <v>44162</v>
       </c>
-      <c r="H20" s="15">
+      <c r="H21" s="15">
         <v>44165</v>
       </c>
-      <c r="I20" s="15">
+      <c r="I21" s="15">
         <v>44167</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J21" s="15">
         <v>44169</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K21" s="15">
         <v>44172</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L21" s="15">
         <v>44174</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M21" s="15">
         <v>44176</v>
       </c>
-      <c r="N20" s="15">
+      <c r="N21" s="15">
         <v>44179</v>
       </c>
-      <c r="O20" s="14"/>
-      <c r="P20" s="14" t="s">
+      <c r="O21" s="14"/>
+      <c r="P21" s="14" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B21" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="P21" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
+        <v>5</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="10"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
-      <c r="K22" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="K22" s="10"/>
       <c r="L22" s="10"/>
       <c r="M22" s="10"/>
       <c r="N22" s="10"/>
+      <c r="P22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
       <c r="F23" s="10"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K23" s="11"/>
+      <c r="L23" s="11"/>
       <c r="M23" s="10"/>
       <c r="N23" s="10"/>
       <c r="P23" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" s="14" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="10"/>
+      <c r="G24" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="12"/>
-      <c r="H24" s="20"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="12"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="J24" s="12"/>
+      <c r="K24" s="10"/>
       <c r="L24" s="10"/>
       <c r="M24" s="10"/>
       <c r="N24" s="10"/>
+      <c r="P24" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="G25" s="8"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="8"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="F25" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="10"/>
       <c r="L25" s="10"/>
       <c r="M25" s="10"/>
       <c r="N25" s="10"/>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" s="14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
+      <c r="F26" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G26" s="8"/>
       <c r="H26" s="8"/>
       <c r="I26" s="8"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="J26" s="8"/>
+      <c r="K26" s="10"/>
       <c r="L26" s="10"/>
       <c r="M26" s="10"/>
       <c r="N26" s="10"/>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="H27" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27" s="8"/>
+      <c r="J27" s="8"/>
+      <c r="K27" s="10"/>
       <c r="L27" s="10"/>
       <c r="M27" s="10"/>
       <c r="N27" s="10"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1535,77 +1546,72 @@
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="J28" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="K28" s="13"/>
       <c r="L28" s="10"/>
       <c r="M28" s="10"/>
       <c r="N28" s="10"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" s="14" t="s">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9"/>
-      <c r="F29" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="13"/>
-      <c r="H29" s="13"/>
-      <c r="I29" s="13"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10" t="s">
-        <v>96</v>
-      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
       <c r="L29" s="10"/>
       <c r="M29" s="10"/>
       <c r="N29" s="10"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="14" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
       <c r="E30" s="9"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L30" s="10"/>
+      <c r="F30" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
       <c r="M30" s="10"/>
       <c r="N30" s="10"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="J31" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L31" s="10"/>
+      <c r="F31" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="11"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
       <c r="M31" s="10"/>
       <c r="N31" s="10"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1613,14 +1619,31 @@
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
+      <c r="K32" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L32" s="27"/>
+      <c r="M32" s="11"/>
       <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B33" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1631,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B9472F-3312-437F-805E-9F4AA7CFD1DE}">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1653,48 +1676,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="E1" s="26" t="s">
+      <c r="C1" s="26"/>
+      <c r="E1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="H1" s="26" t="s">
+      <c r="F1" s="26"/>
+      <c r="H1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="27"/>
-      <c r="K1" s="26" t="s">
+      <c r="I1" s="26"/>
+      <c r="K1" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="27"/>
+      <c r="L1" s="26"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>29</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
         <v>29</v>
@@ -1702,6 +1725,9 @@
       <c r="M2" s="6"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C3" t="s">
         <v>19</v>
       </c>
@@ -1709,13 +1735,16 @@
         <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C4" t="s">
         <v>20</v>
       </c>
@@ -1731,7 +1760,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -1740,13 +1769,16 @@
         <v>34</v>
       </c>
       <c r="I5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
@@ -1754,13 +1786,16 @@
         <v>35</v>
       </c>
       <c r="I6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C7" t="s">
         <v>23</v>
       </c>
@@ -1776,7 +1811,7 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" t="s">
         <v>24</v>
@@ -1785,13 +1820,16 @@
         <v>37</v>
       </c>
       <c r="I8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L8" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C9" t="s">
         <v>25</v>
       </c>
@@ -1806,17 +1844,23 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C10" t="s">
         <v>26</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C11" t="s">
         <v>27</v>
       </c>
@@ -1829,7 +1873,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" t="s">
         <v>40</v>
@@ -1852,13 +1896,16 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C15" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" t="s">
         <v>47</v>
@@ -1866,7 +1913,7 @@
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C17" t="s">
         <v>48</v>
@@ -1874,7 +1921,7 @@
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C18" t="s">
         <v>49</v>
@@ -1882,23 +1929,34 @@
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C19" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C20" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C21" t="s">
-        <v>101</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C22" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1918,7 +1976,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,33 +1987,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="22" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="25">
+      <c r="A2" s="24">
         <v>44160</v>
       </c>
       <c r="B2" s="7" t="s">
@@ -1981,103 +2039,121 @@
       </c>
     </row>
     <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="25">
+      <c r="A3" s="24">
         <v>44165</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="E3" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G3" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="7" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="25">
+      <c r="A4" s="24">
         <v>44167</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="24">
+        <v>44169</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="25">
-        <v>44169</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="7" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="24">
+        <v>44173</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H6" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="25">
-        <v>44172</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>134</v>
-      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+      <c r="A7" s="24">
         <v>44174</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="25">
+      <c r="A8" s="24">
         <v>44176</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="25">
+      <c r="A9" s="24">
         <v>44179</v>
       </c>
     </row>
@@ -2088,57 +2164,72 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022955B-6432-47C7-8EE5-B0A3A38B2D96}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>140</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>142</v>
       </c>
     </row>
   </sheetData>

--- a/AirportCheckInMeetingNotes.xlsx
+++ b/AirportCheckInMeetingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solar\IdeaProjects\PSD2_Group8Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDF6AE6F-1D76-4623-B890-0EC8C88F0D23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1C4B0-E96F-4020-8977-992967BF9ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16335" yWindow="2925" windowWidth="21600" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
   <si>
     <t>Week 9 W</t>
   </si>
@@ -492,13 +492,49 @@
   </si>
   <si>
     <t>Everyone (Ciaran Lead)</t>
+  </si>
+  <si>
+    <t>Project Submission</t>
+  </si>
+  <si>
+    <t>Forwareded Everything to Melissa</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>Present to Rosaleen at 6pm</t>
+  </si>
+  <si>
+    <t>Got the JavaDocs working</t>
+  </si>
+  <si>
+    <t>Complile everyone's Comments for a final JavaDoc, start on Presentation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continued Write up and commenting </t>
+  </si>
+  <si>
+    <t>Worked on Commenting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complete Commenting </t>
+  </si>
+  <si>
+    <t>Complete Commenting, continue Write up</t>
+  </si>
+  <si>
+    <t>Begin finialistion of everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalise Everything, Submit, and Present </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -549,6 +585,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -594,9 +637,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -606,7 +658,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment textRotation="45"/>
@@ -637,20 +689,34 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment textRotation="45"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -658,7 +724,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -980,17 +1047,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89EAEF8C-9C6D-4416-9398-EC3F7C9DF428}">
   <dimension ref="B2:P33"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23" style="14" customWidth="1"/>
-    <col min="3" max="14" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="14" customWidth="1"/>
+    <col min="3" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="3.5703125" customWidth="1"/>
-    <col min="16" max="16" width="73.28515625" customWidth="1"/>
+    <col min="16" max="16" width="53.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:16" x14ac:dyDescent="0.25">
@@ -1006,7 +1073,7 @@
       <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -1044,7 +1111,7 @@
       <c r="D4" s="15">
         <v>44155</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="22">
         <v>44158</v>
       </c>
       <c r="F4" s="15">
@@ -1086,7 +1153,7 @@
         <v>78</v>
       </c>
       <c r="D5" s="11"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="23" t="s">
         <v>72</v>
       </c>
       <c r="F5" s="11"/>
@@ -1108,7 +1175,7 @@
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
@@ -1132,7 +1199,7 @@
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="E7" s="24"/>
       <c r="F7" s="12" t="s">
         <v>73</v>
       </c>
@@ -1154,7 +1221,7 @@
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="E8" s="24"/>
       <c r="F8" s="8" t="s">
         <v>66</v>
       </c>
@@ -1176,7 +1243,7 @@
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="9"/>
@@ -1198,7 +1265,7 @@
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="E10" s="24"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
@@ -1220,7 +1287,7 @@
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="E11" s="24"/>
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
@@ -1242,7 +1309,7 @@
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="E12" s="24"/>
       <c r="F12" s="11" t="s">
         <v>80</v>
       </c>
@@ -1264,7 +1331,7 @@
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1285,7 +1352,7 @@
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="E14" s="24"/>
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1307,7 +1374,7 @@
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="E15" s="24"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
@@ -1339,7 +1406,7 @@
       <c r="D20" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="21" t="s">
         <v>77</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1378,7 +1445,7 @@
       <c r="D21" s="15">
         <v>44155</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="22">
         <v>44158</v>
       </c>
       <c r="F21" s="15">
@@ -1421,7 +1488,7 @@
         <v>78</v>
       </c>
       <c r="D22" s="11"/>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="23" t="s">
         <v>72</v>
       </c>
       <c r="F22" s="11"/>
@@ -1443,6 +1510,7 @@
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
       <c r="H23" s="10"/>
@@ -1464,6 +1532,7 @@
       </c>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="10"/>
       <c r="G24" s="12" t="s">
         <v>73</v>
@@ -1485,6 +1554,7 @@
       </c>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="12" t="s">
         <v>73</v>
       </c>
@@ -1503,7 +1573,7 @@
       </c>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="E26" s="24"/>
       <c r="F26" s="8" t="s">
         <v>66</v>
       </c>
@@ -1522,7 +1592,7 @@
       </c>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="E27" s="24"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
       <c r="H27" s="8" t="s">
@@ -1541,7 +1611,7 @@
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="E28" s="24"/>
       <c r="F28" s="10"/>
       <c r="G28" s="10"/>
       <c r="H28" s="10"/>
@@ -1560,7 +1630,7 @@
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="E29" s="24"/>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
       <c r="H29" s="10"/>
@@ -1577,7 +1647,7 @@
       </c>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="11" t="s">
         <v>145</v>
       </c>
@@ -1596,14 +1666,14 @@
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
+      <c r="E31" s="24"/>
       <c r="F31" s="11" t="s">
         <v>69</v>
       </c>
       <c r="G31" s="11"/>
-      <c r="H31" s="27"/>
+      <c r="H31" s="20"/>
       <c r="I31" s="11"/>
-      <c r="J31" s="27"/>
+      <c r="J31" s="20"/>
       <c r="K31" s="11"/>
       <c r="L31" s="11"/>
       <c r="M31" s="10"/>
@@ -1615,14 +1685,14 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="10"/>
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
       <c r="K32" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L32" s="27"/>
+      <c r="L32" s="20"/>
       <c r="M32" s="11"/>
       <c r="N32" s="10"/>
     </row>
@@ -1632,7 +1702,7 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
+      <c r="E33" s="24"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10"/>
@@ -1656,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B9472F-3312-437F-805E-9F4AA7CFD1DE}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1671,27 +1741,28 @@
     <col min="7" max="7" width="2.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="36"/>
     <col min="12" max="12" width="32.28515625" customWidth="1"/>
     <col min="13" max="13" width="2.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="E1" s="25" t="s">
+      <c r="C1" s="34"/>
+      <c r="E1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="26"/>
-      <c r="H1" s="25" t="s">
+      <c r="F1" s="34"/>
+      <c r="H1" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="26"/>
-      <c r="K1" s="25" t="s">
+      <c r="I1" s="34"/>
+      <c r="K1" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="26"/>
+      <c r="L1" s="34"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1716,7 +1787,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="35" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -1734,9 +1805,15 @@
       <c r="F3" t="s">
         <v>32</v>
       </c>
+      <c r="H3" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I3" t="s">
         <v>114</v>
       </c>
+      <c r="K3" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L3" t="s">
         <v>32</v>
       </c>
@@ -1751,9 +1828,15 @@
       <c r="F4" t="s">
         <v>33</v>
       </c>
+      <c r="H4" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I4" t="s">
         <v>11</v>
       </c>
+      <c r="K4" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L4" t="s">
         <v>33</v>
       </c>
@@ -1768,9 +1851,15 @@
       <c r="F5" t="s">
         <v>34</v>
       </c>
+      <c r="H5" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I5" t="s">
         <v>115</v>
       </c>
+      <c r="K5" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L5" t="s">
         <v>34</v>
       </c>
@@ -1785,9 +1874,15 @@
       <c r="F6" t="s">
         <v>35</v>
       </c>
+      <c r="H6" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I6" t="s">
         <v>116</v>
       </c>
+      <c r="K6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L6" t="s">
         <v>35</v>
       </c>
@@ -1802,9 +1897,15 @@
       <c r="F7" t="s">
         <v>36</v>
       </c>
+      <c r="H7" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I7" t="s">
         <v>13</v>
       </c>
+      <c r="K7" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L7" t="s">
         <v>36</v>
       </c>
@@ -1819,9 +1920,15 @@
       <c r="F8" t="s">
         <v>37</v>
       </c>
+      <c r="H8" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I8" t="s">
         <v>117</v>
       </c>
+      <c r="K8" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L8" t="s">
         <v>37</v>
       </c>
@@ -1836,9 +1943,15 @@
       <c r="F9" t="s">
         <v>38</v>
       </c>
+      <c r="H9" s="32" t="s">
+        <v>97</v>
+      </c>
       <c r="I9" t="s">
         <v>15</v>
       </c>
+      <c r="K9" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L9" t="s">
         <v>38</v>
       </c>
@@ -1853,6 +1966,9 @@
       <c r="F10" t="s">
         <v>99</v>
       </c>
+      <c r="K10" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L10" t="s">
         <v>39</v>
       </c>
@@ -1867,6 +1983,9 @@
       <c r="F11" t="s">
         <v>41</v>
       </c>
+      <c r="K11" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="L11" t="s">
         <v>41</v>
       </c>
@@ -1880,6 +1999,9 @@
       </c>
       <c r="F12" t="s">
         <v>43</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="L12" t="s">
         <v>43</v>
@@ -1976,189 +2098,241 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="7" customWidth="1"/>
-    <col min="2" max="8" width="37" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="7" customWidth="1"/>
+    <col min="2" max="8" width="36.28515625" style="7" customWidth="1"/>
     <col min="9" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="26" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A2" s="30">
         <v>44160</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="31" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="24">
+    <row r="3" spans="1:8" ht="112.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="30">
         <v>44165</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="31" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="31" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="31" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="24">
+    <row r="4" spans="1:8" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="30">
         <v>44167</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="31" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="31" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="31" t="s">
         <v>112</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="31" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A5" s="24">
+    <row r="5" spans="1:8" ht="93.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="30">
         <v>44169</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="G5" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="H5" s="31" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
+    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="30">
         <v>44173</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="G6" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="31" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="30">
         <v>44174</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+      <c r="B7" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C7" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>159</v>
+      </c>
+      <c r="E7" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="F7" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="G7" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="H7" s="31" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A8" s="30">
         <v>44176</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+      <c r="B8" s="31"/>
+      <c r="C8" s="31"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="30">
         <v>44179</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="31" t="s">
+        <v>152</v>
+      </c>
+      <c r="G9" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="31" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2166,8 +2340,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3022955B-6432-47C7-8EE5-B0A3A38B2D96}">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AirportCheckInMeetingNotes.xlsx
+++ b/AirportCheckInMeetingNotes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solar\IdeaProjects\PSD2_Group8Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1C4B0-E96F-4020-8977-992967BF9ACF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB45C80-9DC0-40C9-B89E-EE945E03B8BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{C1F31788-D6A8-49D3-99F7-ADB274DE32C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Burn Down Chart" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="169">
   <si>
     <t>Week 9 W</t>
   </si>
@@ -528,6 +528,21 @@
   </si>
   <si>
     <t xml:space="preserve">Finalise Everything, Submit, and Present </t>
+  </si>
+  <si>
+    <t>Review for Presentation</t>
+  </si>
+  <si>
+    <t>Finalise Write up and review for Presentation</t>
+  </si>
+  <si>
+    <t>Finished Presentation Slides</t>
+  </si>
+  <si>
+    <t>Review for Presentation, Compile everything, and Submit</t>
+  </si>
+  <si>
+    <t>Finishing up</t>
   </si>
 </sst>
 </file>
@@ -718,14 +733,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1726,7 +1741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54B9472F-3312-437F-805E-9F4AA7CFD1DE}">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
@@ -1741,28 +1756,28 @@
     <col min="7" max="7" width="2.42578125" style="5" customWidth="1"/>
     <col min="9" max="9" width="27.42578125" customWidth="1"/>
     <col min="10" max="10" width="2.42578125" style="5" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="36"/>
+    <col min="11" max="11" width="9.140625" style="34"/>
     <col min="12" max="12" width="32.28515625" customWidth="1"/>
     <col min="13" max="13" width="2.42578125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="34"/>
-      <c r="E1" s="33" t="s">
+      <c r="C1" s="36"/>
+      <c r="E1" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="H1" s="33" t="s">
+      <c r="F1" s="36"/>
+      <c r="H1" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="34"/>
-      <c r="K1" s="33" t="s">
+      <c r="I1" s="36"/>
+      <c r="K1" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="34"/>
+      <c r="L1" s="36"/>
     </row>
     <row r="2" spans="1:13" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
@@ -1787,7 +1802,7 @@
         <v>29</v>
       </c>
       <c r="J2" s="6"/>
-      <c r="K2" s="35" t="s">
+      <c r="K2" s="33" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="3" t="s">
@@ -2097,8 +2112,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52BAE4F4-9D76-4285-85F5-8EB67F8CEC56}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,7 +2253,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="93.75" x14ac:dyDescent="0.25">
       <c r="A6" s="30">
         <v>44173</v>
       </c>
@@ -2290,16 +2305,26 @@
         <v>162</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="37.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A8" s="30">
         <v>44176</v>
       </c>
       <c r="B8" s="31"/>
-      <c r="C8" s="31"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" s="31" t="s">
+        <v>167</v>
+      </c>
       <c r="H8" s="31" t="s">
         <v>163</v>
       </c>
